--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/TENNESSEE_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/TENNESSEE_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1106"/>
+  <dimension ref="A1:D1100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C42">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C77">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C78">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C109">
@@ -2068,7 +2068,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C129">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C167">
@@ -2772,12 +2772,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C184">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C190">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C197">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C201">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C207">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C218">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C228">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C235">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C240">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C244">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C245">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C247">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C259">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C267">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C277">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C280">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C282">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C284">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C285">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C286">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C290">
@@ -4258,7 +4258,7 @@
         <v>624</v>
       </c>
       <c r="D295">
-        <v>0.09195402298850575</v>
+        <v>0.09195402298850576</v>
       </c>
     </row>
     <row r="296">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,20 +4295,20 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C298">
         <v>62</v>
       </c>
       <c r="D298">
-        <v>0.009136457412319481</v>
+        <v>0.00913645741231948</v>
       </c>
     </row>
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C304">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C316">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C321">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C324">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C328">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C343">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C345">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C349">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C360">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C364">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C368">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C372">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C375">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C382">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C385">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C388">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C399">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C400">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C406">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C409">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C419">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C423">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C426">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C435">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C439">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C442">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C444">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C449">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C452">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C458">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C461">
@@ -6787,7 +6787,7 @@
         <v>65</v>
       </c>
       <c r="D488">
-        <v>0.009578544061302681</v>
+        <v>0.00957854406130268</v>
       </c>
     </row>
     <row r="489">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C525">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C543">
@@ -7604,7 +7604,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C551">
@@ -7656,7 +7656,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C555">
@@ -7791,7 +7791,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C565">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C570">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C583">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C585">
@@ -8126,7 +8126,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C590">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C596">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C603">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C615">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C617">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C620">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C624">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C629">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C666">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C673">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C697">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C731">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C738">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C741">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C748">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C757">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C763">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C770">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C773">
@@ -10575,7 +10575,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C778">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C787">
@@ -10731,7 +10731,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C790">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C796">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C797">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C801">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C818">
@@ -11126,7 +11126,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C820">
@@ -11178,7 +11178,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C824">
@@ -11191,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C825">
@@ -11204,7 +11204,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C826">
@@ -11243,7 +11243,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C829">
@@ -11357,7 +11357,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C837">
@@ -11370,7 +11370,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C838">
@@ -11448,7 +11448,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C844">
@@ -11552,7 +11552,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C852">
@@ -11630,7 +11630,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C858">
@@ -11669,7 +11669,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C861">
@@ -11682,7 +11682,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C862">
@@ -11747,7 +11747,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C867">
@@ -11786,7 +11786,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C870">
@@ -11799,7 +11799,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C871">
@@ -11812,7 +11812,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C872">
@@ -11825,7 +11825,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C873">
@@ -12230,7 +12230,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C903">
@@ -12508,7 +12508,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C924">
@@ -12630,7 +12630,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C933">
@@ -12643,7 +12643,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C934">
@@ -12817,7 +12817,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C947">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C956">
@@ -13116,7 +13116,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C970">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C984">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C986">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C987">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C988">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C998">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1002">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1004">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1008">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1015">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1019">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1022">
@@ -13883,7 +13883,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1029">
@@ -13922,7 +13922,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1032">
@@ -14234,7 +14234,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1056">
@@ -14332,7 +14332,7 @@
         <v>632</v>
       </c>
       <c r="D1063">
-        <v>0.09313292071912761</v>
+        <v>0.0931329207191276</v>
       </c>
     </row>
     <row r="1064">
@@ -14400,7 +14400,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1068">
@@ -14426,7 +14426,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1070">
@@ -14608,7 +14608,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1084">
@@ -14621,7 +14621,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1085">
@@ -14725,7 +14725,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1093">
@@ -14738,7 +14738,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1094">
@@ -14824,41 +14824,6 @@
       </c>
       <c r="D1100">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
